--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="279">
   <si>
     <t>title</t>
   </si>
@@ -857,6 +857,18 @@
   </si>
   <si>
     <t>Hong Kong University of Science and Technology</t>
+  </si>
+  <si>
+    <t>CosyPose: Consistent multi-view multi-object 6D pose estimation</t>
+  </si>
+  <si>
+    <t>ECCV2020</t>
+  </si>
+  <si>
+    <t>Yann</t>
+  </si>
+  <si>
+    <t>INRIA</t>
   </si>
 </sst>
 </file>
@@ -864,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -881,6 +893,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,26 +928,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,23 +951,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,8 +974,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,39 +1027,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,6 +1049,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1049,7 +1073,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,37 +1145,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,31 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,43 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,37 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,6 +1240,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1265,6 +1292,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1275,21 +1317,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,168 +1340,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1482,14 +1494,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1670,7 +1682,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1694,9 +1706,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1720,7 +1732,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1773,7 +1785,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1798,7 +1810,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1810,15 +1822,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A99" sqref="$A99:$XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="74.8733333333333" customWidth="1"/>
+    <col min="1" max="1" width="74.8733333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3141,7 +3153,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
+    <row r="67" s="1" customFormat="true" spans="1:6">
       <c r="A67" s="3" t="s">
         <v>205</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:6">
+    <row r="68" s="1" customFormat="true" spans="1:6">
       <c r="A68" s="3" t="s">
         <v>208</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:6">
+    <row r="73" s="1" customFormat="true" spans="1:6">
       <c r="A73" s="3" t="s">
         <v>218</v>
       </c>
@@ -3481,7 +3493,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" spans="1:6">
+    <row r="84" s="1" customFormat="true" spans="1:6">
       <c r="A84" s="3" t="s">
         <v>240</v>
       </c>
@@ -3581,7 +3593,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:6">
+    <row r="89" s="1" customFormat="true" spans="1:6">
       <c r="A89" s="3" t="s">
         <v>253</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" spans="1:6">
+    <row r="96" s="1" customFormat="true" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>268</v>
       </c>
@@ -3749,6 +3761,26 @@
       </c>
       <c r="F98" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="true" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
